--- a/resultados/resultados_RS_cv_vs_test.xlsx
+++ b/resultados/resultados_RS_cv_vs_test.xlsx
@@ -492,13 +492,10 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -547,9 +544,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -570,62 +567,68 @@
         <v>21</v>
       </c>
       <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>2000</v>
+      </c>
+      <c r="K2">
+        <v>45873</v>
+      </c>
+      <c r="M2">
+        <v>37956</v>
+      </c>
+      <c r="N2">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="O2">
+        <v>0.56599999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="J2">
-        <v>2000</v>
-      </c>
-      <c r="K2">
-        <v>8000</v>
-      </c>
-      <c r="N2">
+      <c r="J3">
+        <v>2000</v>
+      </c>
+      <c r="K3">
+        <v>46332</v>
+      </c>
+      <c r="M3">
+        <v>38332</v>
+      </c>
+      <c r="N3">
         <v>0.50900000000000001</v>
       </c>
-      <c r="O2">
-        <v>0.52900000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3">
-        <v>2000</v>
-      </c>
-      <c r="K3">
-        <v>7917</v>
-      </c>
-      <c r="N3">
-        <v>0.51700000000000002</v>
-      </c>
       <c r="O3">
-        <v>0.53300000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -646,24 +649,27 @@
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J4">
         <v>2000</v>
       </c>
       <c r="K4">
-        <v>7757</v>
+        <v>46311</v>
+      </c>
+      <c r="M4">
+        <v>38311</v>
       </c>
       <c r="N4">
-        <v>0.53500000000000003</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="O4">
-        <v>0.51300000000000001</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -690,21 +696,21 @@
         <v>2000</v>
       </c>
       <c r="K5">
-        <v>46311</v>
+        <v>46332</v>
       </c>
       <c r="M5">
-        <v>38311</v>
+        <v>38332</v>
       </c>
       <c r="N5">
         <v>0.50900000000000001</v>
       </c>
       <c r="O5">
-        <v>0.55900000000000005</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -731,21 +737,21 @@
         <v>2000</v>
       </c>
       <c r="K6">
-        <v>45873</v>
+        <v>45864</v>
       </c>
       <c r="M6">
-        <v>37956</v>
+        <v>37947</v>
       </c>
       <c r="N6">
         <v>0.51700000000000002</v>
       </c>
       <c r="O6">
-        <v>0.56599999999999995</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -772,19 +778,19 @@
         <v>2000</v>
       </c>
       <c r="K7">
-        <v>44939</v>
+        <v>44940</v>
       </c>
       <c r="M7">
-        <v>37182</v>
+        <v>37183</v>
       </c>
       <c r="N7">
         <v>0.53500000000000003</v>
       </c>
       <c r="O7">
-        <v>0.53100000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -807,27 +813,27 @@
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J8">
         <v>2000</v>
       </c>
       <c r="K8">
-        <v>46332</v>
+        <v>44940</v>
       </c>
       <c r="M8">
-        <v>38332</v>
+        <v>37183</v>
       </c>
       <c r="N8">
-        <v>0.50900000000000001</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="O8">
-        <v>0.56200000000000006</v>
+        <v>0.54200000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -863,12 +869,12 @@
         <v>0.51700000000000002</v>
       </c>
       <c r="O9">
-        <v>0.55300000000000005</v>
+        <v>0.54100000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -889,145 +895,145 @@
         <v>21</v>
       </c>
       <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>2000</v>
+      </c>
+      <c r="K10">
+        <v>7917</v>
+      </c>
+      <c r="N10">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="O10">
+        <v>0.53300000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
         <v>31</v>
       </c>
-      <c r="J10">
-        <v>2000</v>
-      </c>
-      <c r="K10">
-        <v>44940</v>
-      </c>
-      <c r="M10">
-        <v>37183</v>
-      </c>
-      <c r="N10">
+      <c r="J11">
+        <v>2000</v>
+      </c>
+      <c r="K11">
+        <v>44939</v>
+      </c>
+      <c r="M11">
+        <v>37182</v>
+      </c>
+      <c r="N11">
         <v>0.53500000000000003</v>
       </c>
-      <c r="O10">
-        <v>0.54200000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="O11">
+        <v>0.53100000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
         <v>29</v>
       </c>
-      <c r="J11">
-        <v>2000</v>
-      </c>
-      <c r="K11">
-        <v>46332</v>
-      </c>
-      <c r="M11">
-        <v>38332</v>
-      </c>
-      <c r="N11">
+      <c r="J12">
+        <v>2000</v>
+      </c>
+      <c r="K12">
+        <v>8000</v>
+      </c>
+      <c r="N12">
         <v>0.50900000000000001</v>
       </c>
-      <c r="O11">
-        <v>0.55700000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12">
-        <v>2000</v>
-      </c>
-      <c r="K12">
-        <v>45864</v>
-      </c>
-      <c r="M12">
-        <v>37947</v>
-      </c>
-      <c r="N12">
-        <v>0.51700000000000002</v>
-      </c>
       <c r="O12">
-        <v>0.54100000000000004</v>
+        <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
+      <c r="C13">
+        <v>85</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13">
+        <v>2000</v>
+      </c>
+      <c r="K13">
+        <v>30624</v>
+      </c>
+      <c r="L13">
         <v>31</v>
       </c>
-      <c r="J13">
-        <v>2000</v>
-      </c>
-      <c r="K13">
-        <v>44940</v>
-      </c>
       <c r="M13">
-        <v>37183</v>
+        <v>22707</v>
       </c>
       <c r="N13">
-        <v>0.53500000000000003</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="O13">
-        <v>0.54400000000000004</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1041,19 +1047,19 @@
         <v>85</v>
       </c>
       <c r="D14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I14" t="s">
         <v>29</v>
@@ -1065,7 +1071,7 @@
         <v>30938</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="M14">
         <v>22938</v>
@@ -1074,7 +1080,7 @@
         <v>0.50900000000000001</v>
       </c>
       <c r="O14">
-        <v>0.51200000000000001</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -1088,19 +1094,19 @@
         <v>85</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I15" t="s">
         <v>30</v>
@@ -1112,7 +1118,7 @@
         <v>30624</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M15">
         <v>22707</v>
@@ -1121,57 +1127,48 @@
         <v>0.51700000000000002</v>
       </c>
       <c r="O15">
-        <v>0.52400000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16">
-        <v>85</v>
-      </c>
-      <c r="D16">
-        <v>50</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J16">
         <v>2000</v>
       </c>
       <c r="K16">
-        <v>30938</v>
-      </c>
-      <c r="L16">
-        <v>51</v>
-      </c>
-      <c r="M16">
-        <v>22938</v>
+        <v>7757</v>
       </c>
       <c r="N16">
-        <v>0.50900000000000001</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="O16">
-        <v>0.52400000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.51300000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1182,40 +1179,40 @@
         <v>85</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
         <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17">
+        <v>2000</v>
+      </c>
+      <c r="K17">
+        <v>30938</v>
+      </c>
+      <c r="L17">
         <v>30</v>
       </c>
-      <c r="J17">
-        <v>2000</v>
-      </c>
-      <c r="K17">
-        <v>30624</v>
-      </c>
-      <c r="L17">
-        <v>54</v>
-      </c>
       <c r="M17">
-        <v>22707</v>
+        <v>22938</v>
       </c>
       <c r="N17">
-        <v>0.51700000000000002</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="O17">
-        <v>0.51800000000000002</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1225,6 +1222,9 @@
         <filter val="0"/>
       </filters>
     </filterColumn>
+    <sortState ref="A2:O17">
+      <sortCondition descending="1" ref="O1:O17"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resultados/resultados_RS_cv_vs_test.xlsx
+++ b/resultados/resultados_RS_cv_vs_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos_D\etapa-analisis_pcsmote\resultados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnatello\Documents\GitHub\etapa-analisis_pcsmote\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EE62C2-6E81-412A-8663-9AB8C7908669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01892080-DE0E-400B-88DF-7F0132789DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$1165</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -411,9 +416,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -451,9 +456,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,9 +491,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,9 +543,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -703,8 +742,8 @@
   <dimension ref="A1:O1165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A723" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R1171" sqref="R1171"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1169" sqref="K1169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10895,7 +10934,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>19</v>
       </c>
@@ -11224,7 +11263,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>19</v>
       </c>
@@ -13615,7 +13654,7 @@
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>15</v>
       </c>
@@ -13656,7 +13695,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>19</v>
       </c>
@@ -14032,7 +14071,7 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>19</v>
       </c>
@@ -15056,7 +15095,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>19</v>
       </c>
@@ -15150,7 +15189,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>19</v>
       </c>
@@ -15573,7 +15612,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>17</v>
       </c>
@@ -15659,7 +15698,7 @@
         <v>0.79600000000000004</v>
       </c>
     </row>
-    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>18</v>
       </c>
@@ -34342,7 +34381,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="723" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="3" t="s">
         <v>19</v>
       </c>
@@ -34812,7 +34851,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="733" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="3" t="s">
         <v>15</v>
       </c>
@@ -34853,7 +34892,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="734" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="3" t="s">
         <v>19</v>
       </c>
@@ -35605,7 +35644,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="750" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="3" t="s">
         <v>19</v>
       </c>
@@ -36733,7 +36772,7 @@
         <v>0.75900000000000001</v>
       </c>
     </row>
-    <row r="774" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="3" t="s">
         <v>16</v>
       </c>
@@ -38327,7 +38366,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="808" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" s="3" t="s">
         <v>18</v>
       </c>
@@ -38370,7 +38409,7 @@
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="809" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" s="3" t="s">
         <v>17</v>
       </c>
@@ -38460,7 +38499,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="811" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" s="3" t="s">
         <v>19</v>
       </c>
@@ -55095,7 +55134,7 @@
   <autoFilter ref="A1:O1165" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="us_crime"/>
+        <filter val="glass"/>
       </filters>
     </filterColumn>
     <filterColumn colId="8">
@@ -55103,7 +55142,7 @@
         <filter val="0"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A723:O811">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A434:O491">
       <sortCondition descending="1" ref="O1:O1165"/>
     </sortState>
   </autoFilter>
